--- a/Superfund Data S2022.xlsx
+++ b/Superfund Data S2022.xlsx
@@ -1,26 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tisha_Nakao\Desktop\Teaching\4323\Projects\Superfund\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RStudio\Superfund-County-comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBE81D40-90B7-49E8-BE89-80C6DC84CBE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1338D091-C4D1-44F4-B70B-6EF82A1C993B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sites and Counties" sheetId="1" r:id="rId1"/>
     <sheet name="Comparison Counties" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="210">
   <si>
     <t>Superfund Site ID</t>
   </si>
@@ -47,9 +43,6 @@
     <t>Superfund Site Name</t>
   </si>
   <si>
-    <t>Net Present Value of Remediation</t>
-  </si>
-  <si>
     <t>County</t>
   </si>
   <si>
@@ -59,9 +52,6 @@
     <t>2019 County Population (in Thousands of Persons)</t>
   </si>
   <si>
-    <t>2019 GDP Per Capita (Use Columns E and F to construct this!)</t>
-  </si>
-  <si>
     <t>ILD005252432</t>
   </si>
   <si>
@@ -671,7 +661,10 @@
     <t>TXN000607441</t>
   </si>
   <si>
-    <t>*Note: Since some sites are not yet cleaned up, there is no NPV for their remediation.</t>
+    <t>NPV_Remediation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019_GDP_Per_Capita </t>
   </si>
 </sst>
 </file>
@@ -682,9 +675,9 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -740,6 +733,12 @@
     <font>
       <u/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -827,28 +826,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -886,236 +885,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sites and Counties"/>
-      <sheetName val="Comparison Counties"/>
-      <sheetName val="Relationship 1"/>
-      <sheetName val="Relationship 2"/>
-      <sheetName val="Demo Relationship 1"/>
-      <sheetName val="Demo Relationship 2"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="2">
-          <cell r="B2">
-            <v>36027.082825022051</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3">
-        <row r="2">
-          <cell r="C2">
-            <v>36027.082825022051</v>
-          </cell>
-          <cell r="D2">
-            <v>3702000</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="C3">
-            <v>36027.082825022051</v>
-          </cell>
-          <cell r="D3">
-            <v>3089862</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4">
-            <v>82637.172143473901</v>
-          </cell>
-          <cell r="D4">
-            <v>18970000</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="C5">
-            <v>102768.89573789963</v>
-          </cell>
-          <cell r="D5">
-            <v>12500000</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6">
-            <v>102768.89573789963</v>
-          </cell>
-          <cell r="D6">
-            <v>1800000</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>50635.882869021385</v>
-          </cell>
-          <cell r="D7">
-            <v>6500000</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>34964.142624172018</v>
-          </cell>
-          <cell r="D8">
-            <v>4286644</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9">
-            <v>57656.293483970258</v>
-          </cell>
-          <cell r="D9">
-            <v>140000</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10">
-            <v>88571.131231585314</v>
-          </cell>
-          <cell r="D10">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11">
-            <v>58437.504934859855</v>
-          </cell>
-          <cell r="D11">
-            <v>920000</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12">
-            <v>48953.848003987383</v>
-          </cell>
-          <cell r="D12">
-            <v>4000000</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="C13">
-            <v>48953.848003987383</v>
-          </cell>
-          <cell r="D13">
-            <v>6705000</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="C14">
-            <v>53863.774272918774</v>
-          </cell>
-          <cell r="D14">
-            <v>3919000</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="C15">
-            <v>53863.774272918774</v>
-          </cell>
-          <cell r="D15">
-            <v>24000000</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="C16">
-            <v>44628.56631252238</v>
-          </cell>
-          <cell r="D16">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="C17">
-            <v>23282.960581272557</v>
-          </cell>
-          <cell r="D17">
-            <v>5387000</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="C18">
-            <v>50666.961532318506</v>
-          </cell>
-          <cell r="D18">
-            <v>11800000</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="C19">
-            <v>40957.676816000239</v>
-          </cell>
-          <cell r="D19">
-            <v>14720000</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="C20">
-            <v>47643.375044336848</v>
-          </cell>
-          <cell r="D20">
-            <v>8368000</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="C21">
-            <v>85776.032368684304</v>
-          </cell>
-          <cell r="D21">
-            <v>42710000</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="C22">
-            <v>49896.448742610701</v>
-          </cell>
-          <cell r="D22">
-            <v>27115000</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="C23">
-            <v>60729.229061052756</v>
-          </cell>
-          <cell r="D23">
-            <v>2537800</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="C24">
-            <v>53325.878791622905</v>
-          </cell>
-          <cell r="D24">
-            <v>2940000</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="C25">
-            <v>56534.245667517149</v>
-          </cell>
-          <cell r="D25">
-            <v>6392000</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="C26">
-            <v>43218.141894449909</v>
-          </cell>
-          <cell r="D26">
-            <v>2220595</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1383,26 +1152,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" style="10" customWidth="1"/>
     <col min="2" max="2" width="59" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="22" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" style="20" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="8.7109375" style="4"/>
+    <col min="3" max="3" width="16.88671875" style="22" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" style="20" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1410,36 +1179,34 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="F1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="K1" s="19"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="B2" s="10" t="s">
         <v>6</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>8</v>
       </c>
       <c r="C2" s="22">
         <v>3702000</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E2" s="20">
         <v>1919559</v>
@@ -1452,18 +1219,18 @@
         <v>36027.082825022051</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" s="22">
         <v>3089862</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" s="20">
         <v>1919559</v>
@@ -1477,18 +1244,18 @@
       </c>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" s="32">
         <v>18970000</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E4" s="24">
         <v>425600691</v>
@@ -1501,15 +1268,15 @@
         <v>82637.172143473901</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E5" s="20">
         <v>425600691</v>
@@ -1522,15 +1289,15 @@
         <v>82637.172143473901</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>17</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>19</v>
       </c>
       <c r="E6" s="20">
         <v>1219105</v>
@@ -1543,18 +1310,18 @@
         <v>114480.70241337216</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="22">
         <v>12500000</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7" s="20">
         <v>94831129</v>
@@ -1567,18 +1334,18 @@
         <v>102768.89573789963</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" s="22">
         <v>1800000</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8" s="20">
         <v>94831129</v>
@@ -1591,15 +1358,15 @@
         <v>102768.89573789963</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E9" s="20">
         <v>94831129</v>
@@ -1612,18 +1379,18 @@
         <v>102768.89573789963</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" s="22">
         <v>6500000</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E10" s="20">
         <v>26953126</v>
@@ -1636,18 +1403,18 @@
         <v>50635.882869021385</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11" s="22">
         <v>4286644</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E11" s="20">
         <v>1736634</v>
@@ -1660,18 +1427,18 @@
         <v>34964.142624172018</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C12" s="22">
         <v>140000</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E12" s="20">
         <v>6256688</v>
@@ -1684,18 +1451,18 @@
         <v>57656.293483970258</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C13" s="22">
         <v>0</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E13" s="20">
         <v>61745947</v>
@@ -1708,18 +1475,18 @@
         <v>88571.131231585314</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C14" s="22">
         <v>920000</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E14" s="20">
         <v>2960444</v>
@@ -1732,18 +1499,18 @@
         <v>58437.504934859855</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C15" s="22">
         <v>4000000</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E15" s="20">
         <v>33786771</v>
@@ -1756,18 +1523,18 @@
         <v>48953.848003987383</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C16" s="22">
         <v>6705000</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E16" s="20">
         <v>33786771</v>
@@ -1780,18 +1547,18 @@
         <v>48953.848003987383</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C17" s="22">
         <v>3919000</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E17" s="20">
         <v>15214631</v>
@@ -1804,18 +1571,18 @@
         <v>53863.774272918774</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C18" s="22">
         <v>24000000</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E18" s="20">
         <v>15214631</v>
@@ -1828,15 +1595,15 @@
         <v>53863.774272918774</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>52</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>54</v>
       </c>
       <c r="E19" s="20">
         <v>5679566</v>
@@ -1849,18 +1616,18 @@
         <v>51345.350992180087</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C20" s="22">
         <v>0</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E20" s="20">
         <v>2990828</v>
@@ -1873,18 +1640,18 @@
         <v>44628.56631252238</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C21" s="22">
         <v>5387000</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E21" s="20">
         <v>1477234</v>
@@ -1897,18 +1664,18 @@
         <v>23282.960581272557</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C22" s="22">
         <v>11800000</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E22" s="20">
         <v>4123936</v>
@@ -1921,18 +1688,18 @@
         <v>50666.961532318506</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C23" s="22">
         <v>14720000</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E23" s="20">
         <v>5308033</v>
@@ -1945,15 +1712,15 @@
         <v>40957.676816000239</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="10" t="s">
         <v>67</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>69</v>
       </c>
       <c r="E24" s="20">
         <v>2273190</v>
@@ -1966,18 +1733,18 @@
         <v>45393.893404157599</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C25" s="33">
         <v>8368000</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E25" s="20">
         <v>17327562</v>
@@ -1990,18 +1757,18 @@
         <v>47643.375044336848</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C26" s="34">
         <v>42710000</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E26" s="25">
         <v>403940180</v>
@@ -2014,18 +1781,18 @@
         <v>85776.032368684304</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C27" s="34">
         <v>27115000</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E27" s="20">
         <v>17041683</v>
@@ -2038,18 +1805,18 @@
         <v>49896.448742610701</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C28" s="34">
         <v>2537800</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E28" s="20">
         <v>4156855</v>
@@ -2062,18 +1829,18 @@
         <v>60729.229061052756</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C29" s="22">
         <v>2940000</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E29" s="26">
         <v>863186</v>
@@ -2086,18 +1853,18 @@
         <v>53325.878791622905</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C30" s="22">
         <v>6392000</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E30" s="26">
         <v>3412294</v>
@@ -2110,18 +1877,18 @@
         <v>56534.245667517149</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C31" s="22">
         <v>2220595</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E31" s="26">
         <v>1712346</v>
@@ -2134,18 +1901,18 @@
         <v>43218.141894449909</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C32" s="22">
         <v>7600000</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E32" s="27">
         <v>322071501</v>
@@ -2158,18 +1925,18 @@
         <v>143164.96855292795</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C33" s="22">
         <v>24950000</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E33" s="28">
         <v>1099500</v>
@@ -2182,18 +1949,18 @@
         <v>29203.962920661903</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C34" s="22">
         <v>73000</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E34" s="27">
         <v>125132743</v>
@@ -2206,18 +1973,18 @@
         <v>59550.666212340846</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C35" s="22">
         <v>45300000</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E35" s="28">
         <v>45973004</v>
@@ -2230,15 +1997,15 @@
         <v>50758.573023200348</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E36" s="27">
         <v>274113964</v>
@@ -2251,18 +2018,18 @@
         <v>104004.26923174696</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C37" s="22">
         <v>12127000</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E37" s="28">
         <v>27970956</v>
@@ -2275,18 +2042,18 @@
         <v>49501.736129546065</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C38" s="22">
         <v>66100000</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E38" s="28">
         <v>322071501</v>
@@ -2299,18 +2066,18 @@
         <v>143164.96855292795</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C39" s="22">
         <v>18590740</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E39" s="28">
         <v>403940180</v>
@@ -2323,15 +2090,15 @@
         <v>85776.032368684304</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E40" s="28">
         <v>192882</v>
@@ -2344,18 +2111,18 @@
         <v>34302.329717232795</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C41" s="22">
         <v>6605479</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E41" s="28">
         <v>48780405</v>
@@ -2368,18 +2135,18 @@
         <v>48812.23057433447</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C42" s="22">
         <v>2200000</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E42" s="27">
         <v>403940180</v>
@@ -2392,18 +2159,18 @@
         <v>85776.032368684304</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C43" s="22">
         <v>162555000</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E43" s="28">
         <v>4463096</v>
@@ -2416,15 +2183,15 @@
         <v>42163.947435546193</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E44" s="28">
         <v>14955642</v>
@@ -2437,15 +2204,15 @@
         <v>55045.701982001876</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E45" s="27">
         <v>188667348</v>
@@ -2458,18 +2225,18 @@
         <v>177149.27902694693</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C46" s="22">
         <v>32891</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E46" s="20">
         <v>1298461</v>
@@ -2482,15 +2249,15 @@
         <v>47435.830928286996</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="D47" s="10" t="s">
         <v>193</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>195</v>
       </c>
       <c r="E47" s="20">
         <v>53914259</v>
@@ -2503,18 +2270,18 @@
         <v>63864.093115044605</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C48" s="22">
         <v>11827271</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E48" s="20">
         <v>46402824</v>
@@ -2527,18 +2294,18 @@
         <v>71218.911153676148</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C49" s="22">
         <v>4493000</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E49" s="20">
         <v>29322865</v>
@@ -2551,15 +2318,15 @@
         <v>56764.003290906447</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E50" s="20">
         <v>1766657</v>
@@ -2573,6 +2340,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -2582,51 +2350,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="8"/>
-    <col min="2" max="2" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" style="22" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.109375" style="8"/>
+    <col min="2" max="2" width="11.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" style="22" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="16" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="B2" s="8" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>73</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>75</v>
       </c>
       <c r="D2" s="28">
         <v>4388795</v>
@@ -2639,15 +2407,15 @@
         <v>41745.964558503198</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D3" s="28">
         <v>524425</v>
@@ -2660,15 +2428,15 @@
         <v>31389.537319686358</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D4" s="28">
         <v>4217136</v>
@@ -2681,15 +2449,15 @@
         <v>82638.709803844729</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D5" s="28">
         <v>8610109</v>
@@ -2702,15 +2470,15 @@
         <v>67904.138866543639</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D6" s="28">
         <v>3509617</v>
@@ -2723,15 +2491,15 @@
         <v>27227.439875872769</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D7" s="28">
         <v>52373.7</v>
@@ -2744,15 +2512,15 @@
         <v>28448.506246605106</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D8" s="28">
         <v>1789172</v>
@@ -2765,15 +2533,15 @@
         <v>52528.463638765745</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D9" s="28">
         <v>6450764</v>
@@ -2786,15 +2554,15 @@
         <v>58873.988080570234</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D10" s="28">
         <v>11748970</v>
@@ -2807,15 +2575,15 @@
         <v>38215.613503817018</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D11" s="28">
         <v>640573</v>
@@ -2828,15 +2596,15 @@
         <v>49381.205673758865</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D12" s="28">
         <v>3745889</v>
@@ -2849,15 +2617,15 @@
         <v>49921.889784767111</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D13" s="28">
         <v>1155607</v>
@@ -2870,15 +2638,15 @@
         <v>40047.373163293596</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D14" s="28">
         <v>3900381</v>
@@ -2891,15 +2659,15 @@
         <v>36227.34618814088</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D15" s="28">
         <v>2563726</v>
@@ -2912,15 +2680,15 @@
         <v>50884.74286961872</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D16" s="28">
         <v>879281</v>
@@ -2933,15 +2701,15 @@
         <v>51786.383179221397</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D17" s="28">
         <v>1992346</v>
@@ -2954,15 +2722,15 @@
         <v>44901.985531090126</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D18" s="27">
         <v>13606198</v>
@@ -2975,15 +2743,15 @@
         <v>52925.92967169753</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D19" s="27">
         <v>30595500</v>
@@ -2996,15 +2764,15 @@
         <v>37645.019237465502</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D20" s="27">
         <v>16812083</v>
@@ -3017,15 +2785,15 @@
         <v>44868.235570417855</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D21" s="27">
         <v>243156</v>
@@ -3038,15 +2806,15 @@
         <v>42265.948200938641</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D22" s="27">
         <v>843087</v>
@@ -3059,15 +2827,15 @@
         <v>213439.74683544302</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>117</v>
-      </c>
       <c r="C23" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D23" s="27">
         <v>1276834</v>
@@ -3080,15 +2848,15 @@
         <v>28583.702708753077</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D24" s="27">
         <v>4113110</v>
@@ -3101,15 +2869,15 @@
         <v>31532.58203005213</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D25" s="28">
         <v>51430946</v>
@@ -3122,15 +2890,15 @@
         <v>62536.64034979992</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D26" s="28">
         <v>743895</v>
@@ -3143,15 +2911,15 @@
         <v>29065.21059623349</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D27" s="29">
         <v>6314195</v>
@@ -3164,15 +2932,15 @@
         <v>35876.71948953675</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D28" s="28">
         <v>1740838</v>
@@ -3185,15 +2953,15 @@
         <v>26006.334125098972</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D29" s="29">
         <v>37014547</v>
@@ -3206,15 +2974,15 @@
         <v>41647.169949311683</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D30" s="28">
         <v>51287267</v>
@@ -3227,15 +2995,15 @@
         <v>54229.086483560175</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D31" s="28">
         <v>1913131</v>
@@ -3248,15 +3016,15 @@
         <v>39976.826312270139</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D32" s="28">
         <v>30595500</v>
@@ -3269,15 +3037,15 @@
         <v>37645.019237465502</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D33" s="28">
         <v>129506</v>
@@ -3290,15 +3058,15 @@
         <v>50099.032882011605</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D34" s="27">
         <v>1429886</v>
@@ -3311,15 +3079,15 @@
         <v>17551.93577688852</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D35" s="27">
         <v>30595500</v>
@@ -3332,15 +3100,15 @@
         <v>37645.019237465502</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D36" s="28">
         <v>455495</v>
@@ -3353,15 +3121,15 @@
         <v>33507.061939090774</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D37" s="28">
         <v>1704938</v>
@@ -3374,15 +3142,15 @@
         <v>36905.816395004003</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D38" s="28">
         <v>57349525</v>
@@ -3395,15 +3163,15 @@
         <v>75354.801198328656</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D39" s="27">
         <v>29140805</v>
@@ -3416,15 +3184,15 @@
         <v>60473.157217564541</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D40" s="27">
         <v>242950042</v>
@@ -3437,15 +3205,15 @@
         <v>72947.915587611205</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D41" s="27">
         <v>291580</v>
@@ -3458,15 +3226,15 @@
         <v>18282.023951344912</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D42" s="27">
         <v>7627156</v>
@@ -3479,15 +3247,15 @@
         <v>108007.36366597278</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D43" s="27">
         <v>1884546.1</v>
